--- a/biology/Microbiologie/Tumebacillus/Tumebacillus.xlsx
+++ b/biology/Microbiologie/Tumebacillus/Tumebacillus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tumebacillus est un genre de bactéries à Gram positif de la famille des Alicyclobacillaceae.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,10 +551,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Tumebacillus Steven et al. 2008[1].
-L'espèce type est : Tumebacillus permanentifrigoris Steven et al. 2008[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Tumebacillus Steven et al. 2008.
+L'espèce type est : Tumebacillus permanentifrigoris Steven et al. 2008.
 </t>
         </is>
       </c>
@@ -569,11 +585,48 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'étymologie du nom de genre Tumebacillus est la suivante : Tu.me.ba.cil.lus. L. adj. pref. tume-, enflé (comme dans tumefacere pour «faire enfler»); L. masc. n. bacillus, un petit bâtonnet; N.L. masc. n. Tumebacillus, bâtonnet enflé, ce qui se rapporte à l'aspect large, de l'extrémité enflée des sporanges observées en microscopie [une meilleure latinisation probable serait Tumidibacillus][1].
-Liste des espèces
-Selon LPSN  (4 mars 2024)[1], le genre Tumebacillus comprend 10 espèces publiées de manière valide :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie du nom de genre Tumebacillus est la suivante : Tu.me.ba.cil.lus. L. adj. pref. tume-, enflé (comme dans tumefacere pour «faire enfler»); L. masc. n. bacillus, un petit bâtonnet; N.L. masc. n. Tumebacillus, bâtonnet enflé, ce qui se rapporte à l'aspect large, de l'extrémité enflée des sporanges observées en microscopie [une meilleure latinisation probable serait Tumidibacillus].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tumebacillus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tumebacillus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon LPSN  (4 mars 2024), le genre Tumebacillus comprend 10 espèces publiées de manière valide :
 Tumebacillus algifaecis Wu et al. 2015
 Tumebacillus amylolyticus Kang et al. 2022
 Tumebacillus avium Sung et al. 2018
